--- a/recipes/지베_베이직물티슈_80매 캡.xlsx
+++ b/recipes/지베_베이직물티슈_80매 캡.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wisj9\OneDrive\바탕 화면\measurement-new-structure\recipes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\measurement_new_structure\recipes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84752B5E-967F-41F8-83CA-BF849D347450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4BB94F-419C-4FF0-B41B-D4D245F4888E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{89D8E56D-90F6-4520-BFB1-D89A416FA42E}"/>
   </bookViews>
@@ -244,7 +244,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>No</t>
   </si>
@@ -345,6 +345,10 @@
   </si>
   <si>
     <t>작성일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>물</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -787,13 +791,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B916A1F6-0FFD-4653-9BCB-535192010599}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="11" width="17.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
@@ -839,7 +846,7 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -1089,7 +1096,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2">
         <f>100-(SUM(D2:D10))</f>
-        <v>99.369339999999994</v>
+        <v>99.459339999999997</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -1106,6 +1113,29 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2">
+        <v>6</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
